--- a/pert1011/template-tugas.xlsx
+++ b/pert1011/template-tugas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALI_5P52\pert1011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\pert1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10595AC9-B278-47EF-B901-3DA257DFC82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="2" r:id="rId1"/>
@@ -19,10 +20,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataset!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'n-bayes'!$B$3:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -157,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,13 +323,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,7 +354,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -664,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1051,17 +1060,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,8 +1469,14 @@
       <c r="I12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="9">
+        <f>COUNTIFS($C$4:$C$15,"pria",$G$4:$G$15,"tepat")/COUNTIF(G$4:G$15,"tepat")</f>
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="9">
+        <f>COUNTIFS($C$4:$C$15,"pria",$G$4:$G$15,"terlambat")/COUNTIF(G$4:G$15,"terlambat")</f>
+        <v>0.7142857142857143</v>
+      </c>
       <c r="L12" s="10"/>
       <c r="N12" s="13" t="s">
         <v>34</v>
@@ -1493,8 +1508,14 @@
       <c r="I13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="9">
+        <f>COUNTIFS($C$4:$C$15,"wanita",$G$4:$G$15,"tepat")/COUNTIF(G$4:G$15,"tepat")</f>
+        <v>0.4</v>
+      </c>
+      <c r="K13" s="9">
+        <f>COUNTIFS($C$4:$C$15,"wanita",$G$4:$G$15,"terlambat")/COUNTIF(G$4:G$15,"terlambat")</f>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="N13" s="13" t="s">
         <v>35</v>
@@ -1565,12 +1586,18 @@
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="9">
+        <f>COUNTIFS($D$4:$D$15,"pekalongan",$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <f>COUNTIFS($D$4:$D$15,$D$4,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
+        <v>0.7142857142857143</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="N16" s="12" t="s">
         <v>37</v>
@@ -1602,8 +1629,14 @@
       <c r="I17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="9">
+        <f>COUNTIFS($D$4:$D$15,$D$7,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <f>COUNTIFS($D$4:$D$15,$D$7,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
+        <v>0.2857142857142857</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="N17" s="21" t="s">
         <v>36</v>
@@ -1683,16 +1716,28 @@
       <c r="I20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="9">
+        <f>COUNTIFS($E$4:$E$15,$E$4,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
+        <v>0.8</v>
+      </c>
+      <c r="K20" s="9">
+        <f>COUNTIFS($E$4:$E$15,$E$6,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
+        <v>0.5714285714285714</v>
+      </c>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="9">
+        <f>COUNTIFS($E$4:$E$15,$E$9,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="9">
+        <f>COUNTIFS($E$4:$E$15,$E$9,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
+        <v>0.42857142857142855</v>
+      </c>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -1717,20 +1762,32 @@
       <c r="I24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="J24" s="9">
+        <f>COUNTIFS($F$4:$F$15,$F$8,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
+        <v>0.4</v>
+      </c>
+      <c r="K24" s="9">
+        <f>COUNTIFS($F$4:$F$15,$F$8,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="9">
+        <f>COUNTIFS($F$4:$F$15,$F$7,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
+        <v>0.6</v>
+      </c>
+      <c r="K25" s="9">
+        <f>COUNTIFS($F$4:$F$15,$F$10,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
+        <v>1</v>
+      </c>
       <c r="L25" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:G15"/>
+  <autoFilter ref="B3:G15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="N15:O15"/>

--- a/pert1011/template-tugas.xlsx
+++ b/pert1011/template-tugas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\pert1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10595AC9-B278-47EF-B901-3DA257DFC82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33541A17-211E-4EA3-BB60-E001A62D1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="180" windowWidth="17730" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="57">
   <si>
     <t>JURUSAN</t>
   </si>
@@ -161,13 +161,80 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>P(tepat|ips,pria,pekalongan,lebih18,tidak)</t>
+  </si>
+  <si>
+    <t>P(ips|tepat)*P(pria|tepat)*P(pekalongan|tepat)*P(lebih18|tepat)*P(tidak|tepat)*P(tepat)</t>
+  </si>
+  <si>
+    <t>P(terlambat|ips,pria,pekalongan,lebih18,tidak)</t>
+  </si>
+  <si>
+    <t>P(ips|terlambat)*P(pria|terlambat)*P(pekalongan|terlambat)*P(lebih18|terlambat)*P(tidak|tepat)*P(terlambat)</t>
+  </si>
+  <si>
+    <t>IPS PRIA PEKALONGAN LEBIH 18 TIDAK = TERLAMBAT</t>
+  </si>
+  <si>
+    <t>P(tepat|ipa,wanita,luar,lebih18,tidak)</t>
+  </si>
+  <si>
+    <t>P(ipa|tepat)*P(wanita|tepat)*P(luar|tepat)*P(lebih18|tepat)*P(tidak|tepat)*P(tepat)</t>
+  </si>
+  <si>
+    <t>P(terlambat|ipa,wanita,luar,lebih18,tidak)</t>
+  </si>
+  <si>
+    <t>P(ipa|terlambat)*P(wanita|terlambat)*P(luar|terlambat)*P(lebih18|terlambat)*P(tidak|tepat)*P(terlambat)</t>
+  </si>
+  <si>
+    <t>P(tepat|bahasa,pria,pekalongan,lebih18,tidak)</t>
+  </si>
+  <si>
+    <t>P(bahasa|tepat)*P(pria|tepat)*P(pekalongan|tepat)*P(lebih18|tepat)*P(tidak|tepat)*P(tepat)</t>
+  </si>
+  <si>
+    <t>P(terlambat|bahasa,pria,pekalongan,lebih18,tidak)</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>IPA WANITA LUAR LEBIH 18 TIDAK = TERLAMBAT</t>
+  </si>
+  <si>
+    <t>BAHASA PRIA PEKALONGAN LEBIH 18 TIDAK = TERLAMBAT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P(bahasa|terlambat)*P(pria|terlambat)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*P(pekalongan|terlambat)*P(lebih18|terlambat)*P(tidak|tepat)*P(terlambat)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +298,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -303,15 +395,6 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,9 +424,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +438,27 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -375,6 +476,114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2699016</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0EC517-59A6-3A84-587F-C4DADAE76B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7102928" y="6567447"/>
+          <a:ext cx="2617374" cy="588458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92048</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1046950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>264893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E25847F-FE5D-8F04-DBA4-05A053CDA56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7113334" y="7350259"/>
+          <a:ext cx="4492759" cy="997277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +886,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,738 +1271,1974 @@
   </sheetData>
   <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="53" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="O1" s="24" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="O1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="24"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O2" s="16" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="O2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="N3" s="17" t="s">
+      <c r="L3" s="7"/>
+      <c r="N3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9">
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
         <f>$O$17/($O$16+$O$17)</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <f>$O$16/($O$16+$O$17)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="N4" s="17" t="s">
+      <c r="L4" s="7"/>
+      <c r="N4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="22" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="22"/>
-      <c r="O6" s="20" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="18"/>
+      <c r="O6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="20"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f>COUNTIFS($B$4:$B$15,"IPA",$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0.8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="6">
         <f>COUNTIFS($B$4:$B$15,"IPA",$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="22"/>
-      <c r="O7" s="16" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="18"/>
+      <c r="O7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <f>COUNTIFS($B$4:$B$15,"ips",$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0.2</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <f>COUNTIFS($B$4:$B$15,"ips",$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="17" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="14"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <f>COUNTIFS($B$4:$B$15,"bahasa",$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="6">
         <f>COUNTIFS($B$4:$B$15,"bahasa",$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="17" t="s">
+      <c r="L9" s="7"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="11"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
+      <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="N11" s="13" t="s">
+      <c r="L11" s="7"/>
+      <c r="N11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <f>COUNTIFS($C$4:$C$15,"pria",$G$4:$G$15,"tepat")/COUNTIF(G$4:G$15,"tepat")</f>
         <v>0.6</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <f>COUNTIFS($C$4:$C$15,"pria",$G$4:$G$15,"terlambat")/COUNTIF(G$4:G$15,"terlambat")</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="N12" s="13" t="s">
+      <c r="L12" s="7"/>
+      <c r="N12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="14"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5">
+      <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <f>COUNTIFS($C$4:$C$15,"wanita",$G$4:$G$15,"tepat")/COUNTIF(G$4:G$15,"tepat")</f>
         <v>0.4</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <f>COUNTIFS($C$4:$C$15,"wanita",$G$4:$G$15,"terlambat")/COUNTIF(G$4:G$15,"terlambat")</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="N13" s="13" t="s">
+      <c r="L13" s="7"/>
+      <c r="N13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="14"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
+      <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="11"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="N15" s="23" t="s">
+      <c r="L15" s="7"/>
+      <c r="N15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I16" s="9" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="I16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <f>COUNTIFS($D$4:$D$15,"pekalongan",$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>1</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="6">
         <f>COUNTIFS($D$4:$D$15,$D$4,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="N16" s="12" t="s">
+      <c r="L16" s="7"/>
+      <c r="N16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="15">
         <f>COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="26"/>
+      <c r="B17" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <f>COUNTIFS($D$4:$D$15,$D$7,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="6">
         <f>COUNTIFS($D$4:$D$15,$D$7,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="N17" s="21" t="s">
+      <c r="L17" s="7"/>
+      <c r="N17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="15">
         <f>COUNTIF($G$4:$G$15,G8)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="26"/>
+      <c r="B18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
+      <c r="G18" s="25"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="26"/>
+      <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="25"/>
+      <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6" t="s">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="26"/>
+      <c r="B20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="I20" s="9" t="s">
+      <c r="G20" s="25"/>
+      <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <f>COUNTIFS($E$4:$E$15,$E$4,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0.8</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="6">
         <f>COUNTIFS($E$4:$E$15,$E$6,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="9" t="s">
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="6">
         <f>COUNTIFS($E$4:$E$15,$E$9,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0.2</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="6">
         <f>COUNTIFS($E$4:$E$15,$E$9,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="2:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="7" t="s">
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="9" t="s">
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="I24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="6">
         <f>COUNTIFS($F$4:$F$15,$F$8,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0.4</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="6">
         <f>COUNTIFS($F$4:$F$15,$F$8,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I25" s="9" t="s">
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="I25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="6">
         <f>COUNTIFS($F$4:$F$15,$F$7,$G$4:$G$15,"tepat")/COUNTIF($G$4:$G$15,"tepat")</f>
         <v>0.6</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="6">
         <f>COUNTIFS($F$4:$F$15,$F$10,$G$4:$G$15,"terlambat")/COUNTIF($G$4:$G$15,"terlambat")</f>
         <v>1</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="I34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="I35" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="I36" s="15">
+        <f>$J$8*$J$12*$J$16*$J$20*$J$25*$J$4</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="I37" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="13">
+        <f>$K$8*$K$12*$K$16*$K$20*$K$25*$K$4</f>
+        <v>9.7181729834791064E-2</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="I42" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="I43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="I44" s="15">
+        <f>$J$7*$J$13*$J$17*$J$20*$J$25*$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="15">
+        <f>($J$7+1)*($J$13+1)*($J$17+1)*($J$20+1)*($J$25+1)*$J$4</f>
+        <v>3.0240000000000005</v>
+      </c>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="I46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="I47" s="15">
+        <f>$K$7*$K$13*$K$17*$K$20*$K$25*$K$4</f>
+        <v>1.1661807580174925E-2</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="15">
+        <f>($K$7+1)*($K$13+1)*($K$17+1)*($K$20+1)*($K$25+1)*$K$4</f>
+        <v>4.3294460641399404</v>
+      </c>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="I48" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="I50" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+    </row>
+    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="I52" s="15">
+        <f>$J$9*$J$12*$J$16*$J$20*$J$25*$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="15">
+        <f>($J$9+1)*($J$12+1)*($J$16+1)*($J$20+1)*($J$25+1)*($J$4)</f>
+        <v>3.8400000000000007</v>
+      </c>
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="I53" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+    </row>
+    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="I54" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="I55" s="13">
+        <f>$K$9*$K$12*$K$16*$K$20*$K$25*$K$4</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55" s="15">
+        <f>($K$9+1)*($K$12+1)*($K$16+1)*($K$20+1)*($K$25+1)*($K$4)</f>
+        <v>5.387755102040817</v>
+      </c>
+      <c r="L55" s="15"/>
+    </row>
+    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="I56" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+    </row>
+    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+    </row>
+    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+    </row>
+    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+    </row>
+    <row r="65" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+    </row>
+    <row r="66" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+    </row>
+    <row r="68" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+    </row>
+    <row r="72" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+    </row>
+    <row r="78" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+    </row>
+    <row r="79" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+    </row>
+    <row r="80" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+    </row>
+    <row r="81" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+    </row>
+    <row r="82" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="83" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+    </row>
+    <row r="84" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+    </row>
+    <row r="85" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+    </row>
+    <row r="86" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+    </row>
+    <row r="87" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+    </row>
+    <row r="88" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+    </row>
+    <row r="89" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+    </row>
+    <row r="91" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+    </row>
+    <row r="93" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+    </row>
+    <row r="94" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+    </row>
+    <row r="95" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+    </row>
+    <row r="96" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+    </row>
+    <row r="97" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+    </row>
+    <row r="98" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+    </row>
+    <row r="99" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+    </row>
+    <row r="100" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+    </row>
+    <row r="101" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+    </row>
+    <row r="102" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+    </row>
+    <row r="103" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+    </row>
+    <row r="104" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+    </row>
+    <row r="105" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+    </row>
+    <row r="106" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+    </row>
+    <row r="107" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+    </row>
+    <row r="108" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+    </row>
+    <row r="109" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+    </row>
+    <row r="110" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+    </row>
+    <row r="111" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+    </row>
+    <row r="112" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+    </row>
+    <row r="113" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+    </row>
+    <row r="114" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+    </row>
+    <row r="115" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+    </row>
+    <row r="116" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+    </row>
+    <row r="117" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+    </row>
+    <row r="118" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+    </row>
+    <row r="119" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+    </row>
+    <row r="120" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+    </row>
+    <row r="121" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+    </row>
+    <row r="122" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+    </row>
+    <row r="123" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+    </row>
+    <row r="124" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+    </row>
+    <row r="125" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+    </row>
+    <row r="126" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+    </row>
+    <row r="127" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+    </row>
+    <row r="128" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+    </row>
+    <row r="129" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+    </row>
+    <row r="130" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+    </row>
+    <row r="131" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+    </row>
+    <row r="132" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+    </row>
+    <row r="133" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+    </row>
+    <row r="134" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+    </row>
+    <row r="135" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+    </row>
+    <row r="136" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+    </row>
+    <row r="137" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+    </row>
+    <row r="138" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+    </row>
+    <row r="139" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+    </row>
+    <row r="140" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+    </row>
+    <row r="141" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+    </row>
+    <row r="142" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+    </row>
+    <row r="143" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+    </row>
+    <row r="144" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+    </row>
+    <row r="145" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+    </row>
+    <row r="146" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+    </row>
+    <row r="147" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+    </row>
+    <row r="148" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+    </row>
+    <row r="149" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+    </row>
+    <row r="150" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+    </row>
+    <row r="151" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+    </row>
+    <row r="152" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+    </row>
+    <row r="153" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+    </row>
+    <row r="154" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+    </row>
+    <row r="155" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+    </row>
+    <row r="156" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+    </row>
+    <row r="157" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+    </row>
+    <row r="158" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+    </row>
+    <row r="159" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+    </row>
+    <row r="160" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+    </row>
+    <row r="161" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+    </row>
+    <row r="162" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+    </row>
+    <row r="163" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+    </row>
+    <row r="164" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+    </row>
+    <row r="165" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+    </row>
+    <row r="166" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+    </row>
+    <row r="167" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+    </row>
+    <row r="168" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+    </row>
+    <row r="169" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+    </row>
+    <row r="170" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+    </row>
+    <row r="171" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+    </row>
+    <row r="172" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+    </row>
+    <row r="173" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+    </row>
+    <row r="174" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+    </row>
+    <row r="175" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:G15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="3">
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="274" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pert1011/template-tugas.xlsx
+++ b/pert1011/template-tugas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH S1 SI STMIK WP\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\pert1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33541A17-211E-4EA3-BB60-E001A62D1CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1108C464-5D78-454E-9E78-F25CD0B5606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="180" windowWidth="17730" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1035" windowWidth="14145" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="71">
   <si>
     <t>JURUSAN</t>
   </si>
@@ -228,6 +228,48 @@
       </rPr>
       <t>*P(pekalongan|terlambat)*P(lebih18|terlambat)*P(tidak|tepat)*P(terlambat)</t>
     </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>15 MAHASISWA, 5 TEPAT, 10 TERLAMBAT</t>
+  </si>
+  <si>
+    <t>5 MAHASISWA TEPAT</t>
+  </si>
+  <si>
+    <t>10 MAHASISWA TERLAMBAT</t>
+  </si>
+  <si>
+    <t>PREDIKSI: tepat 5,terlambat 0</t>
+  </si>
+  <si>
+    <t>PREDIKSI: tepat 0,terlambat 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accuracy = </t>
+  </si>
+  <si>
+    <t>MENCARI AKURASI PRESISI RECALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precision = </t>
+  </si>
+  <si>
+    <t>(true positive rate)</t>
+  </si>
+  <si>
+    <t>recall / sesitivity     =</t>
+  </si>
+  <si>
+    <t>Jadi:</t>
+  </si>
+  <si>
+    <t>21.230.0079</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FERDYNAN ALI SAYBANA</t>
   </si>
 </sst>
 </file>
@@ -287,12 +329,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,6 +352,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -386,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -424,11 +467,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,27 +497,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,6 +630,346 @@
         <a:xfrm>
           <a:off x="7113334" y="7350259"/>
           <a:ext cx="4492759" cy="997277"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602095</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>253659</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>727884</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>83561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDE792D-90F0-E379-EDF7-57947E2527FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="969488" y="9697016"/>
+          <a:ext cx="3228217" cy="646331"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Positif (1) = terlambat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Negatif(0) = Tepat</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>262617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>226481</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE1F43F-AF38-8A16-E988-653AE3979285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7007679" y="15693117"/>
+          <a:ext cx="6118373" cy="1383846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8743</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBB3328-5535-535D-0DF7-CA125887FC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17838965" y="4830536"/>
+          <a:ext cx="3560207" cy="734785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1094377</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>208282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01D642C-C301-A049-F4FA-B13B6FA4F4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17879786" y="6000751"/>
+          <a:ext cx="2591162" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>789521</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>74939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D817CD1-E397-5103-9409-50079ED405F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17975036" y="7170964"/>
+          <a:ext cx="2191056" cy="714475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P175"/>
+  <dimension ref="A1:R175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,26 +1703,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="20"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
       <c r="O2" s="13" t="s">
         <v>26</v>
       </c>
@@ -1331,25 +1717,25 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1368,30 +1754,30 @@
       <c r="O3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="5"/>
@@ -1410,60 +1796,60 @@
       <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1476,32 +1862,32 @@
         <v>11</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="18"/>
-      <c r="O6" s="16" t="s">
+      <c r="M6" s="24"/>
+      <c r="O6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="16"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -1516,7 +1902,7 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="24"/>
       <c r="O7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1525,25 +1911,25 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1558,33 +1944,37 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
+      <c r="O8" s="12">
+        <v>10</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -1599,33 +1989,37 @@
         <v>0</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="11"/>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="5"/>
@@ -1634,25 +2028,25 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1668,28 +2062,30 @@
       <c r="N11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="11"/>
+      <c r="O11" s="31" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -1707,28 +2103,30 @@
       <c r="N12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="11"/>
+      <c r="O12" s="31" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
@@ -1746,28 +2144,30 @@
       <c r="N13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="11"/>
+      <c r="O13" s="31" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="5"/>
@@ -1776,25 +2176,25 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1807,19 +2207,12 @@
         <v>11</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="19"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
       <c r="I16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1835,29 +2228,28 @@
       <c r="N16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="15">
-        <f>COUNTIF($G$4:$G$15,"terlambat")</f>
+      <c r="O16" s="16">
+        <f>COUNTIF($G$4:$G$15,G7)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="17" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -1872,55 +2264,58 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="16">
         <f>COUNTIF($G$4:$G$15,G8)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="24" t="s">
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1931,25 +2326,33 @@
         <v>11</v>
       </c>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="24" t="s">
+      <c r="N19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+    </row>
+    <row r="20" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1962,15 +2365,13 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+    </row>
+    <row r="21" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
@@ -1983,22 +2384,36 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" spans="1:18" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N22" s="28"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+    </row>
+    <row r="23" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2014,8 +2429,18 @@
         <v>11</v>
       </c>
       <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="32">
+        <f>($O$8+$P$9)/(SUM($O$8:$P$9))</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+    </row>
+    <row r="24" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2034,8 +2459,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N24" s="28"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+    </row>
+    <row r="25" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2055,24 +2485,46 @@
         <v>1</v>
       </c>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N25" s="28"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+    </row>
+    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N26" s="28"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+    </row>
+    <row r="27" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="32">
+        <f>$O8/(SUM($O8:$P8))</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+    </row>
+    <row r="28" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2080,22 +2532,37 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N28" s="28"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N29" s="28"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+    </row>
+    <row r="30" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N30" s="28"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+    </row>
+    <row r="31" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2103,8 +2570,13 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="N31" s="28"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+    </row>
+    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2112,8 +2584,18 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" s="32">
+        <f>$O$8/(SUM($O$8:$O$9))</f>
+        <v>1</v>
+      </c>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2121,8 +2603,15 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="13"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -2130,14 +2619,19 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="19" t="s">
         <v>41</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-    </row>
-    <row r="35" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+    </row>
+    <row r="35" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2151,8 +2645,15 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-    </row>
-    <row r="36" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+    </row>
+    <row r="36" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -2167,8 +2668,18 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N36" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="34">
+        <f>O23</f>
+        <v>1</v>
+      </c>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+    </row>
+    <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2176,18 +2687,25 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N37" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" s="34">
+        <f>O27</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+    </row>
+    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -2197,12 +2715,19 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-    </row>
-    <row r="39" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N38" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="34">
+        <f>O32</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+    </row>
+    <row r="39" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -2213,55 +2738,63 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-    </row>
-    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+    </row>
+    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="21" t="s">
         <v>45</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+    </row>
+    <row r="41" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-    </row>
-    <row r="42" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+    </row>
+    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
-      <c r="I42" s="23" t="s">
+      <c r="I42" s="19" t="s">
         <v>46</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-    </row>
-    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+    </row>
+    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2271,12 +2804,14 @@
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-    </row>
-    <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+    </row>
+    <row r="44" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2284,7 +2819,7 @@
         <f>$J$7*$J$13*$J$17*$J$20*$J$25*$J$4</f>
         <v>0</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J44" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K44" s="15">
@@ -2292,23 +2827,30 @@
         <v>3.0240000000000005</v>
       </c>
       <c r="L44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+    </row>
+    <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
-      <c r="I45" s="23" t="s">
+      <c r="I45" s="19" t="s">
         <v>48</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+    </row>
+    <row r="46" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -2322,10 +2864,17 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+    </row>
+    <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -2335,7 +2884,7 @@
         <f>$K$7*$K$13*$K$17*$K$20*$K$25*$K$4</f>
         <v>1.1661807580174925E-2</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="J47" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K47" s="15">
@@ -2343,23 +2892,35 @@
         <v>4.3294460641399404</v>
       </c>
       <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+    </row>
+    <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="21" t="s">
         <v>54</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+    </row>
+    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -2367,12 +2928,17 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+    </row>
+    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2380,14 +2946,19 @@
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-    </row>
-    <row r="51" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+    </row>
+    <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -2401,8 +2972,13 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-    </row>
-    <row r="52" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+    </row>
+    <row r="52" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2414,7 +2990,7 @@
         <f>$J$9*$J$12*$J$16*$J$20*$J$25*$J$4</f>
         <v>0</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K52" s="15">
@@ -2422,8 +2998,13 @@
         <v>3.8400000000000007</v>
       </c>
       <c r="L52" s="15"/>
-    </row>
-    <row r="53" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+    </row>
+    <row r="53" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -2431,14 +3012,19 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
-    </row>
-    <row r="54" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+    </row>
+    <row r="54" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -2452,8 +3038,13 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
-    </row>
-    <row r="55" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+    </row>
+    <row r="55" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -2465,7 +3056,7 @@
         <f>$K$9*$K$12*$K$16*$K$20*$K$25*$K$4</f>
         <v>0</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="23" t="s">
         <v>53</v>
       </c>
       <c r="K55" s="15">
@@ -2473,8 +3064,13 @@
         <v>5.387755102040817</v>
       </c>
       <c r="L55" s="15"/>
-    </row>
-    <row r="56" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+    </row>
+    <row r="56" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2482,14 +3078,19 @@
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
-      <c r="I56" s="27" t="s">
+      <c r="I56" s="21" t="s">
         <v>55</v>
       </c>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
-    </row>
-    <row r="57" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+    </row>
+    <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2497,12 +3098,17 @@
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
-    </row>
-    <row r="58" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+    </row>
+    <row r="58" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -2514,8 +3120,13 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
-    </row>
-    <row r="59" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+    </row>
+    <row r="59" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -2527,8 +3138,13 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-    </row>
-    <row r="60" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+    </row>
+    <row r="60" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -2540,410 +3156,942 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+    </row>
+    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B61" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
-    </row>
-    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+    </row>
+    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
-    </row>
-    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+    </row>
+    <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
-    </row>
-    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+    </row>
+    <row r="64" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="15"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
     </row>
-    <row r="67" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
     </row>
-    <row r="68" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
     </row>
-    <row r="69" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="9:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="I70" s="15"/>
+    <row r="70" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
     </row>
-    <row r="71" spans="9:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="I71" s="15"/>
+    <row r="71" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
     </row>
-    <row r="72" spans="9:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="I72" s="15"/>
+    <row r="72" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="9:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="I73" s="15"/>
+    <row r="73" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
     </row>
-    <row r="74" spans="9:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="I74" s="15"/>
+    <row r="74" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
       <c r="L77" s="15"/>
     </row>
-    <row r="78" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
     </row>
-    <row r="79" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
     </row>
-    <row r="80" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
     </row>
-    <row r="81" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
     </row>
-    <row r="82" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
     </row>
-    <row r="83" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
     </row>
-    <row r="84" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="15"/>
     </row>
-    <row r="85" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
     </row>
-    <row r="86" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
     </row>
-    <row r="87" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
       <c r="L87" s="15"/>
     </row>
-    <row r="88" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
     </row>
-    <row r="91" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
       <c r="L91" s="15"/>
     </row>
-    <row r="92" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
       <c r="L92" s="15"/>
     </row>
-    <row r="93" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
       <c r="L93" s="15"/>
     </row>
-    <row r="94" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
       <c r="L94" s="15"/>
     </row>
-    <row r="95" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
       <c r="L95" s="15"/>
     </row>
-    <row r="96" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
       <c r="L96" s="15"/>
     </row>
-    <row r="97" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
       <c r="L97" s="15"/>
     </row>
-    <row r="98" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
       <c r="L98" s="15"/>
     </row>
-    <row r="99" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
     </row>
-    <row r="100" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
     </row>
-    <row r="101" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
     </row>
-    <row r="102" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
     </row>
-    <row r="103" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
     </row>
-    <row r="104" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
-    <row r="105" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
     </row>
-    <row r="106" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
       <c r="L106" s="15"/>
     </row>
-    <row r="107" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
     </row>
-    <row r="108" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
     </row>
-    <row r="109" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
     </row>
-    <row r="110" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
       <c r="I110" s="15"/>
       <c r="J110" s="15"/>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
       <c r="I111" s="15"/>
       <c r="J111" s="15"/>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
     </row>
-    <row r="112" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
       <c r="I112" s="15"/>
       <c r="J112" s="15"/>
       <c r="K112" s="15"/>
       <c r="L112" s="15"/>
     </row>
-    <row r="113" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
       <c r="I113" s="15"/>
       <c r="J113" s="15"/>
       <c r="K113" s="15"/>
       <c r="L113" s="15"/>
     </row>
-    <row r="114" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
     </row>
-    <row r="115" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="15"/>
       <c r="J115" s="15"/>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
     </row>
-    <row r="116" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="15"/>
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
     </row>
-    <row r="117" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
       <c r="I117" s="15"/>
       <c r="J117" s="15"/>
       <c r="K117" s="15"/>
       <c r="L117" s="15"/>
     </row>
-    <row r="118" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
       <c r="K118" s="15"/>
       <c r="L118" s="15"/>
     </row>
-    <row r="119" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
       <c r="I119" s="15"/>
       <c r="J119" s="15"/>
       <c r="K119" s="15"/>
       <c r="L119" s="15"/>
     </row>
-    <row r="120" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
       <c r="I120" s="15"/>
       <c r="J120" s="15"/>
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
     </row>
-    <row r="121" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
       <c r="I121" s="15"/>
       <c r="J121" s="15"/>
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
     </row>
-    <row r="122" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
       <c r="I122" s="15"/>
       <c r="J122" s="15"/>
       <c r="K122" s="15"/>
       <c r="L122" s="15"/>
     </row>
-    <row r="123" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
       <c r="I123" s="15"/>
       <c r="J123" s="15"/>
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A124" s="36"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
       <c r="I124" s="15"/>
       <c r="J124" s="15"/>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
     </row>
-    <row r="125" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I125" s="15"/>
       <c r="J125" s="15"/>
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I126" s="15"/>
       <c r="J126" s="15"/>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I127" s="15"/>
       <c r="J127" s="15"/>
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
     </row>
-    <row r="128" spans="9:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
       <c r="K128" s="15"/>
@@ -3232,10 +4380,11 @@
       <c r="L175" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="274" orientation="portrait" r:id="rId1"/>
